--- a/Project2020/Tables/Material.xlsx
+++ b/Project2020/Tables/Material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670"/>
+    <workbookView windowWidth="24810" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -27,25 +27,70 @@
     <t>Name</t>
   </si>
   <si>
+    <t>CHNName</t>
+  </si>
+  <si>
+    <t>Hardness</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>木头</t>
-  </si>
-  <si>
-    <t>铁块</t>
+    <t>类型(1-固体)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>硬度(1-100)</t>
+  </si>
+  <si>
+    <t>密度(1-100)</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
   <si>
     <t>钻石</t>
   </si>
   <si>
-    <t>铜块</t>
-  </si>
-  <si>
-    <t>铝块</t>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>石头</t>
   </si>
 </sst>
 </file>
@@ -53,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,9 +112,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,44 +156,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,70 +208,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +239,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,31 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,151 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,22 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,32 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +531,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,153 +570,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,119 +1073,196 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.37272727272727" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1281,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1164,7 +1298,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Project2020/Tables/Material.xlsx
+++ b/Project2020/Tables/Material.xlsx
@@ -87,7 +87,7 @@
     <t>铝</t>
   </si>
   <si>
-    <t>Rock</t>
+    <t>Stone</t>
   </si>
   <si>
     <t>石头</t>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,30 +119,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,14 +148,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,11 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,15 +225,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,37 +233,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,55 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,127 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,30 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +522,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,17 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1073,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1088,16 +1085,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1108,16 +1105,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1127,15 +1124,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1155,7 +1151,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1">
@@ -1175,7 +1171,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1">
@@ -1195,7 +1191,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1">
@@ -1215,7 +1211,7 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1">
@@ -1235,7 +1231,7 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1">
